--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.11</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.65</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.53</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6871</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.65</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.53</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1647,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.32</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.65</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1631,14 +1718,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.53</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1647,14 +1756,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="7">
@@ -1663,13 +1910,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6699</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2788</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.95</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>90.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7533</t>
+          <t>0.8252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +694,150 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7810</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>002207</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2867</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +872,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,26 +912,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>0.6871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -810,36 +940,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5422</t>
+          <t>0.3936</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -848,36 +978,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4899</t>
+          <t>0.2753</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -896,26 +1026,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.1459</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +1080,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -980,36 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.5429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1033,17 +1163,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4168</t>
+          <t>0.4177</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1056,36 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1104,22 +1234,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1158,7 +1288,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1188,36 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5429</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1241,17 +1371,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4177</t>
+          <t>0.4168</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1264,36 +1394,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.3131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1312,22 +1442,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1366,7 +1496,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1406,26 +1536,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6871</t>
+          <t>1.2976</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1434,36 +1564,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>85.59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3936</t>
+          <t>0.5422</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1472,36 +1602,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2753</t>
+          <t>0.4899</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1520,26 +1650,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1459</t>
+          <t>0.2047</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1553,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1574,7 +1704,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1614,26 +1744,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.93</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.10</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8252</t>
+          <t>0.7533</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1642,150 +1772,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>90.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7810</t>
+          <t>0.2867</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
         <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4383</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4251</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1561</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1799,144 +1815,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.63</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.53</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.95</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.53</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.95</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,214 +1063,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3936</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2753</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1459</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1110,36 +1127,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5429</t>
+          <t>0.6871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1158,26 +1175,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4177</t>
+          <t>0.3936</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1186,36 +1203,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.2753</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1234,26 +1251,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1459</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1305,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1318,36 +1335,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.5429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1371,17 +1388,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4168</t>
+          <t>0.4177</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1394,36 +1411,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1442,22 +1459,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1536,26 +1553,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1564,36 +1581,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5422</t>
+          <t>0.4168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1602,36 +1619,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4899</t>
+          <t>0.3131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1650,26 +1667,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1678,6 +1695,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
+++ b/数据整理/stocks/A股/上证主板/601069-西部黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.63</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>2.53</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.04</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5363</t>
+          <t>0.5216</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +870,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3184</t>
+          <t>0.2687</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -759,22 +908,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2681</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -797,22 +946,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1469</t>
+          <t>0.2397</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -825,6 +974,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1063,214 +1420,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6871</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3936</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2753</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1459</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1335,36 +1484,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5429</t>
+          <t>0.6871</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1383,26 +1532,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4177</t>
+          <t>0.3936</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1411,36 +1560,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2131</t>
+          <t>0.2753</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1459,26 +1608,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.20</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1459</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1662,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1543,36 +1692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7634</t>
+          <t>0.5429</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1596,17 +1745,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4168</t>
+          <t>0.4177</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1619,36 +1768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3131</t>
+          <t>0.2131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1667,22 +1816,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1542</t>
+          <t>0.1481</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1761,26 +1910,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>0.7634</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1789,36 +1938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.59</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5422</t>
+          <t>0.4168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1827,36 +1976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>91.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4899</t>
+          <t>0.3131</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1875,26 +2024,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.1542</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1903,6 +2052,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5422</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2032,136 +2389,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6699</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2788</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>